--- a/data/trans_dic/P36$pan-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36$pan-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>71,46; 79,62</t>
+          <t>71,35; 79,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73,58; 81,97</t>
+          <t>72,92; 81,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,72; 92,64</t>
+          <t>86,82; 92,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>67,46; 77,42</t>
+          <t>67,49; 77,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,51; 86,33</t>
+          <t>76,54; 86,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,74; 93,45</t>
+          <t>87,29; 93,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>71,51; 77,77</t>
+          <t>71,53; 77,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>76,27; 82,5</t>
+          <t>76,14; 82,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>87,82; 92,22</t>
+          <t>88,01; 92,28</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,27; 79,3</t>
+          <t>69,83; 79,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,7; 87,95</t>
+          <t>80,29; 88,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>83,28; 90,49</t>
+          <t>83,05; 90,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>70,51; 79,53</t>
+          <t>70,84; 79,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>76,16; 85,19</t>
+          <t>76,6; 85,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>83,32; 90,91</t>
+          <t>83,68; 90,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>71,42; 77,98</t>
+          <t>71,72; 78,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>79,93; 85,9</t>
+          <t>80,14; 85,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>84,58; 89,58</t>
+          <t>84,24; 89,64</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>68,83; 76,27</t>
+          <t>68,12; 76,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,37; 84,07</t>
+          <t>77,36; 84,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,29; 88,44</t>
+          <t>82,46; 88,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>68,51; 81,38</t>
+          <t>68,48; 81,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>78,85; 88,15</t>
+          <t>78,4; 88,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>79,96; 90,92</t>
+          <t>79,78; 90,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>69,43; 76,19</t>
+          <t>69,79; 76,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>78,67; 84,41</t>
+          <t>78,82; 84,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>82,5; 88,22</t>
+          <t>82,79; 88,29</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,98; 79,8</t>
+          <t>75,18; 79,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,32; 82,07</t>
+          <t>77,05; 81,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80,53; 84,91</t>
+          <t>80,23; 84,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>73,86; 80,32</t>
+          <t>74,27; 80,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>79,81; 85,52</t>
+          <t>79,54; 85,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,77; 87,97</t>
+          <t>83,33; 88,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>75,74; 79,28</t>
+          <t>75,5; 79,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>78,88; 82,71</t>
+          <t>78,96; 82,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>82,19; 85,62</t>
+          <t>82,22; 85,49</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>71,16; 80,65</t>
+          <t>71,72; 80,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>73,06; 80,37</t>
+          <t>72,99; 80,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,78; 83,11</t>
+          <t>77,02; 83,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76,54; 83,14</t>
+          <t>76,13; 83,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>79,62; 85,22</t>
+          <t>79,37; 85,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>83,38; 88,46</t>
+          <t>83,39; 88,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>75,8; 81,43</t>
+          <t>75,84; 81,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>77,95; 82,58</t>
+          <t>78,14; 82,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>81,49; 85,46</t>
+          <t>81,32; 85,49</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>77,01; 85,55</t>
+          <t>77,14; 85,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>77,82; 86,95</t>
+          <t>77,77; 87,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>82,93; 90,81</t>
+          <t>82,77; 90,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>77,91; 82,62</t>
+          <t>78,12; 82,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>81,55; 86,0</t>
+          <t>81,87; 86,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>87,68; 91,51</t>
+          <t>87,63; 91,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>78,51; 82,63</t>
+          <t>78,54; 82,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>81,68; 85,63</t>
+          <t>81,5; 85,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>87,43; 90,84</t>
+          <t>87,51; 91,02</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>75,03; 77,87</t>
+          <t>74,81; 77,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>78,63; 81,6</t>
+          <t>78,64; 81,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>83,11; 85,7</t>
+          <t>83,24; 85,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>76,51; 79,49</t>
+          <t>76,61; 79,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>81,7; 84,2</t>
+          <t>81,64; 84,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>86,52; 88,85</t>
+          <t>86,52; 88,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>76,33; 78,35</t>
+          <t>76,32; 78,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>80,68; 82,53</t>
+          <t>80,61; 82,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>85,25; 86,95</t>
+          <t>85,29; 87,0</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, pan, tostadas, galletas, cereales, bollería, ...</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>358508</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>340842</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>385994</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>223949</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>257059</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>314407</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>582457</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>597900</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>700400</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>337397; 375507</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>318828; 355823</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>372529; 398049</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>206970; 237742</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>239783; 270362</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>302937; 324361</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>557597; 603402</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>571433; 619953</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>683098; 716194</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>273430</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>352723</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>328677</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>278495</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>273837</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>324266</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>551925</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>626560</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>652943</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>254993; 289726</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>334630; 367574</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>313280; 341140</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>262667; 294760</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>258930; 288697</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>310603; 336698</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>527814; 574370</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>604901; 648443</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>630472; 670858</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>391701</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>507940</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>445575</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>126348</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>218363</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>142323</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>518049</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>726303</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>587898</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>368078; 412813</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>485472; 527598</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>429444; 462596</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>114896; 136727</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>203937; 228981</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>132525; 150173</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>494196; 544183</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>699703; 747834</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>568728; 606469</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1487</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1453</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1595</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>958896</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>922665</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>949569</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>551325</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>633130</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>708631</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1510221</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1555795</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1658200</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>929465; 988448</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>892224; 948109</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>921502; 971443</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>529773; 572114</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>608246; 653976</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>688208; 727494</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1471929; 1547864</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1518024; 1591064</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1623429; 1688023</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>267907</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>392764</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>497122</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>453244</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>626277</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>636282</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>721151</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1019041</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1133404</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>251432; 282986</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>372011; 410723</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>476700; 517552</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>431514; 470802</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>602037; 646081</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>615601; 653519</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>695705; 744901</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>991057; 1047141</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1103651; 1160223</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1244</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1090</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>244096</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>220488</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>251203</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1002574</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>931426</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>968127</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1246669</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1151914</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1219329</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>230032; 256257</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>207562; 232811</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>237660; 260820</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>975504; 1031950</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>908189; 954968</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>946277; 987222</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1214972; 1278513</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1121563; 1176316</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1196250; 1244227</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2445</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2565</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2729</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2572</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2716</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2904</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>5017</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>5633</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2494539</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2737422</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2858139</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2635934</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2940092</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3094036</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>5130472</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>5677514</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5952175</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2441296; 2542407</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2686353; 2782138</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2815125; 2901295</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2584799; 2680561</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2893412; 2983149</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3052809; 3129669</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>5065886; 5204039</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5610706; 5744668</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5893773; 6011714</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P36$pan-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36$pan-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
